--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1C623-BD43-48C8-8985-ACC3B0013212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D66421D-3DE9-4871-A3D6-DB9B0E9DBD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_1.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -137,48 +137,9 @@
     <t>Entidad federativa</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Producto Interno Bruto por entidad federativa</t>
   </si>
   <si>
-    <t>(Millones de pesos anulizados  aprecios de 2018)</t>
-  </si>
-  <si>
     <t>Ultima actualización: mayo 2024</t>
   </si>
   <si>
@@ -189,6 +150,9 @@
   </si>
   <si>
     <t>Dirección General de Planeación</t>
+  </si>
+  <si>
+    <t>(Millones de pesos anulizados  a precios de 2018)</t>
   </si>
 </sst>
 </file>
@@ -196,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +189,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,12 +213,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -248,262 +232,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -514,27 +346,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:N36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Entidad federativa" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="2011" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name="2012" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0B969ED9-B9B4-4DA8-BFF4-BD018051E923}" name="2013" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{F90C46B7-9926-4854-ACB9-19B0088E2497}" name="2014" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{ECF085B3-C5CB-4DFC-B295-F3C77973A297}" name="2015" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{7D1A83DC-2D9A-4F07-932B-CE2425F8ABBC}" name="2016" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{B328E817-D8C2-48E9-9E4A-9AEAF94078C9}" name="2017" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{5AE0D1CC-1D5E-4A8B-B057-B2D23AA9245C}" name="2018" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{1BE0816A-0B4F-4529-B0C1-55B13C9570CA}" name="2019" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{EDBBDA68-14A0-445E-8978-15541903FB4B}" name="2020" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{DBE05950-62E3-48A5-A31F-CC01044778FC}" name="2021" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{182AFB2F-0F0A-4540-837A-68ACFBB0C000}" name="2022" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,106 +571,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>44</v>
+      <c r="C4" s="15">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="15">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="15">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="15">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="6">
@@ -895,53 +706,53 @@
       <c r="M5" s="6">
         <v>315233.12</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>314703.58799999999</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>698850.50699999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>726418.10600000003</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>733753.71100000001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>760856.96699999995</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>795080.74699999997</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <v>828692.24699999997</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>863600.64899999998</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>878816.86800000002</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>893946.24899999995</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>839693.34</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>896313.55900000001</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="9">
         <v>920338.12</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6">
@@ -977,53 +788,53 @@
       <c r="M7" s="6">
         <v>171064.57500000001</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>178066.133</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>711663.19099999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>691262.00399999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>692549.897</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>685992.02500000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>700310.74100000004</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="8">
         <v>663239.24199999997</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>595666.96</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>564591.05599999998</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>541962.92599999998</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>500514.72600000002</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="8">
         <v>489604.29499999998</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="9">
         <v>472523.19400000002</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6">
@@ -1059,53 +870,53 @@
       <c r="M9" s="6">
         <v>921586.98300000001</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>935373.43200000003</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>133676.15900000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>135599.86499999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>133729.296</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>135090.72500000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <v>141029.12899999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <v>140705.23800000001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <v>150360.09599999999</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>153808.394</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <v>161109.85800000001</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="8">
         <v>148143.27299999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="8">
         <v>147667.296</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="9">
         <v>148216.24299999999</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6">
@@ -1141,53 +952,53 @@
       <c r="M11" s="6">
         <v>353638.51</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>373699.78499999997</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>662042.78700000001</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>711480.75699999998</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>732550.603</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>753194.78</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <v>803883.27599999995</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="8">
         <v>830488.50899999996</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>851284.31299999997</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="8">
         <v>853322.804</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="8">
         <v>866861.299</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <v>808710.89099999995</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="8">
         <v>846063.93799999997</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="9">
         <v>910158.00600000005</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
@@ -1223,53 +1034,53 @@
       <c r="M13" s="6">
         <v>3496055.8110000002</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>3650106.8909999998</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>273067.299</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>286058.27399999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>299615.20500000002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>307939.663</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>300289.37599999999</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>305382.234</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <v>304646.65700000001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <v>308981.25400000002</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="8">
         <v>309426.43599999999</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="8">
         <v>286240.78200000001</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="8">
         <v>303251.38099999999</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="9">
         <v>300019.033</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="6">
@@ -1305,53 +1116,53 @@
       <c r="M15" s="6">
         <v>1084518.1329999999</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="7">
         <v>1109908.061</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>291758.33899999998</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>294551.27799999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>299721.33299999998</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>320203.66700000002</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>314103.69500000001</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>313422.06</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>308568.03700000001</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="8">
         <v>317844.94199999998</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="8">
         <v>317146.82500000001</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="8">
         <v>289968.15999999997</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="8">
         <v>303633.38099999999</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="9">
         <v>309410.94900000002</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="6">
@@ -1387,53 +1198,53 @@
       <c r="M17" s="6">
         <v>391962.04100000003</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>431584.41</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>1433185.382</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <v>1488616.797</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>1514072.5970000001</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>1567647.173</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <v>1626750.8130000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="8">
         <v>1676418.736</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="8">
         <v>1708140.0179999999</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="8">
         <v>1754179.51</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="8">
         <v>1767123.3189999999</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="8">
         <v>1624208.871</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="8">
         <v>1712483.0989999999</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="9">
         <v>1798206.2220000001</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="6">
@@ -1469,53 +1280,53 @@
       <c r="M19" s="6">
         <v>2163537.8569999998</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <v>2220002.4479999999</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>522286.56300000002</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>531827.40099999995</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>533525.80599999998</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>560341.41700000002</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <v>573505.86499999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="8">
         <v>591409.51899999997</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="8">
         <v>610394.38500000001</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="8">
         <v>633756.55900000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="8">
         <v>635628.201</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="8">
         <v>601188.66099999996</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="8">
         <v>629066.20700000005</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="9">
         <v>652250.1</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="6">
@@ -1551,53 +1362,53 @@
       <c r="M21" s="6">
         <v>259938.54500000001</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="7">
         <v>259964.04699999999</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>141214.93700000001</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>142897.85500000001</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>145073.201</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>145894.41800000001</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <v>147428.81099999999</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="8">
         <v>152585.94099999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8">
         <v>155110.35500000001</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="8">
         <v>155757.538</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="8">
         <v>157163.253</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="8">
         <v>142605.24400000001</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="8">
         <v>155968.65900000001</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="9">
         <v>162758.76699999999</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="6">
@@ -1633,53 +1444,53 @@
       <c r="M23" s="6">
         <v>1865875.274</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="7">
         <v>1926151.3149999999</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <v>385968</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>386537.7</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="8">
         <v>397816.027</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>395065.13900000002</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <v>401404.011</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="8">
         <v>399767.90299999999</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="8">
         <v>358236.41899999999</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="8">
         <v>383159.64600000001</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="8">
         <v>367363.64600000001</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="8">
         <v>350911.40500000003</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="8">
         <v>385418.05800000002</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="9">
         <v>416279.90100000001</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="6">
@@ -1715,53 +1526,53 @@
       <c r="M25" s="6">
         <v>794876.174</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="7">
         <v>827328.36699999997</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="8">
         <v>509818.25799999997</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="8">
         <v>526760.64599999995</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="8">
         <v>522047.70799999998</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="8">
         <v>542149.19200000004</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="8">
         <v>574578.18700000003</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="8">
         <v>576734.826</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="8">
         <v>591415.25899999996</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="8">
         <v>611367.75</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="8">
         <v>609108.25199999998</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="8">
         <v>553613.92599999998</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="8">
         <v>578175.10800000001</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="9">
         <v>588046.83700000006</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="6">
@@ -1797,53 +1608,53 @@
       <c r="M27" s="6">
         <v>332542.125</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="7">
         <v>356485.25699999998</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <v>416107.84700000001</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>437595.484</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="8">
         <v>450257.19900000002</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>460034.17599999998</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="8">
         <v>480024.60499999998</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="8">
         <v>505856.10399999999</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="8">
         <v>540243.66399999999</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="8">
         <v>557795.95200000005</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="8">
         <v>534391.92000000004</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="8">
         <v>500250.92499999999</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="8">
         <v>516190.984</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="9">
         <v>532985.69499999995</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="6">
@@ -1879,53 +1690,53 @@
       <c r="M29" s="6">
         <v>507429.02100000001</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="7">
         <v>515371.14399999997</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="8">
         <v>648753.48499999999</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="8">
         <v>681378.51899999997</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="8">
         <v>709513.53</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="8">
         <v>721989.41299999994</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <v>760030.95600000001</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="8">
         <v>792034.33700000006</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="8">
         <v>784601.397</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="8">
         <v>782097.73899999994</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="8">
         <v>783103.49399999995</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="8">
         <v>731237.96799999999</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="8">
         <v>760930.12399999995</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="9">
         <v>788445.11600000004</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="6">
@@ -1961,53 +1772,53 @@
       <c r="M31" s="6">
         <v>545415.76100000006</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="7">
         <v>637448.72199999995</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="8">
         <v>647447.55299999996</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="8">
         <v>676616.00699999998</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="8">
         <v>680107.01800000004</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="8">
         <v>687652.55200000003</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="8">
         <v>712997.10400000005</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="8">
         <v>709959.65899999999</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="8">
         <v>709149.522</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="8">
         <v>732093.58400000003</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="8">
         <v>752813.52500000002</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="8">
         <v>691399.97499999998</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="8">
         <v>725029.60499999998</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="9">
         <v>748464.397</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6">
@@ -2043,53 +1854,53 @@
       <c r="M33" s="6">
         <v>143213.32999999999</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="7">
         <v>146545.37700000001</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="8">
         <v>1047541.9889999999</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="8">
         <v>1084722.594</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="8">
         <v>1074459.351</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="8">
         <v>1074852.0209999999</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="8">
         <v>1082921.8370000001</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="8">
         <v>1059514.085</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="8">
         <v>1032743.718</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="8">
         <v>1029905.4</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="8">
         <v>1053328.0020000001</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="8">
         <v>971252.07900000003</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="8">
         <v>1027896.032</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="9">
         <v>1043010.2879999999</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="6">
@@ -2125,98 +1936,99 @@
       <c r="M35" s="6">
         <v>358659.83600000001</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="7">
         <v>369391.51500000001</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="11">
         <v>197227.212</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="11">
         <v>201298.32</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="11">
         <v>196163.85500000001</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="11">
         <v>211201.49799999999</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="11">
         <v>214605.46599999999</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="11">
         <v>216654.62700000001</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="11">
         <v>220568.03700000001</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="11">
         <v>228388.21299999999</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="11">
         <v>219746.54699999999</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="11">
         <v>210643.065</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="11">
         <v>221592.28099999999</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="12">
         <v>225017.97500000001</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="L39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="L40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D66421D-3DE9-4871-A3D6-DB9B0E9DBD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B039C-C1F6-43EE-A338-D023E8C209E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -140,19 +140,16 @@
     <t>Producto Interno Bruto por entidad federativa</t>
   </si>
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
     <t>Nota: Información disponible hasta 2022, la actualización a 2023 por parte de INEGI será el 06 de diciembre de 2024.</t>
   </si>
   <si>
     <t>Fuente: INEGI. Producto Interno Bruto por Entidad Federativa (PIBE). Año base 2018. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>(Millones de pesos anulizados  a precios de 2018)</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -321,14 +318,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N40"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -580,7 +583,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
     <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
@@ -613,7 +616,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -629,43 +632,43 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>2011</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>2012</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>2013</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>2014</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>2015</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>2016</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>2017</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>2018</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>2019</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <v>2020</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>2021</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="13">
         <v>2022</v>
       </c>
     </row>
@@ -1982,8 +1985,8 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="2" t="s">
-        <v>35</v>
+      <c r="B37" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1994,10 +1997,12 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2008,26 +2013,16 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="L39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="L40" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L40:N40"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B039C-C1F6-43EE-A338-D023E8C209E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E23FE-D1C3-4E66-B227-1785428D9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -146,10 +146,10 @@
     <t>Fuente: INEGI. Producto Interno Bruto por Entidad Federativa (PIBE). Año base 2018. En: www.inegi.org.mx.</t>
   </si>
   <si>
-    <t>(Millones de pesos anulizados  a precios de 2018)</t>
-  </si>
-  <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>(Millones de pesos a precios de 2018)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>

--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E23FE-D1C3-4E66-B227-1785428D9204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146D87A-8947-4644-9CA5-077592FF6A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -146,10 +146,10 @@
     <t>Fuente: INEGI. Producto Interno Bruto por Entidad Federativa (PIBE). Año base 2018. En: www.inegi.org.mx.</t>
   </si>
   <si>
+    <t>(Millones de pesos a precios de 2018)</t>
+  </si>
+  <si>
     <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
-    <t>(Millones de pesos a precios de 2018)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>

--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146D87A-8947-4644-9CA5-077592FF6A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A6ED6-1AB2-4882-90B1-C6210129F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>(Millones de pesos a precios de 2018)</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -163,19 +163,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,20 +183,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -354,7 +354,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,28 +362,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -392,14 +392,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -580,24 +580,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -614,7 +613,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -631,7 +630,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -672,7 +671,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -713,7 +712,7 @@
         <v>314703.58799999999</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -754,7 +753,7 @@
         <v>920338.12</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -795,7 +794,7 @@
         <v>178066.133</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -836,7 +835,7 @@
         <v>472523.19400000002</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,7 +876,7 @@
         <v>935373.43200000003</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
@@ -918,7 +917,7 @@
         <v>148216.24299999999</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
@@ -959,7 +958,7 @@
         <v>373699.78499999997</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>910158.00600000005</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>3650106.8909999998</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>300019.033</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>1109908.061</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>309410.94900000002</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>431584.41</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>1798206.2220000001</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>2220002.4479999999</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>652250.1</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>259964.04699999999</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>162758.76699999999</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>1926151.3149999999</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>416279.90100000001</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>827328.36699999997</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>588046.83700000006</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>356485.25699999998</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>532985.69499999995</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>515371.14399999997</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>788445.11600000004</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>637448.72199999995</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>748464.397</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>146545.37700000001</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>1043010.2879999999</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>369391.51500000001</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>225017.97500000001</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>37</v>
       </c>
@@ -2000,7 +1999,7 @@
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
@@ -2017,7 +2016,7 @@
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>

--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A6ED6-1AB2-4882-90B1-C6210129F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DE960-6CCA-4178-AE79-0DC62B53E3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>(Millones de pesos a precios de 2018)</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -168,23 +168,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -194,11 +181,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -296,42 +298,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,29 +577,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N39"/>
+  <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="3" customWidth="1"/>
+    <col min="3" max="15" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -613,7 +608,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
@@ -630,49 +625,52 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="4">
         <v>2011</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="4">
         <v>2012</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>2013</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="4">
         <v>2014</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="4">
         <v>2015</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="4">
         <v>2016</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="4">
         <v>2017</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="4">
         <v>2018</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="4">
         <v>2019</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="4">
         <v>2020</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="4">
         <v>2021</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="O4" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="6">
@@ -708,53 +706,59 @@
       <c r="M5" s="6">
         <v>315233.12</v>
       </c>
-      <c r="N5" s="7">
-        <v>314703.58799999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="N5" s="6">
+        <v>314592.14500000002</v>
+      </c>
+      <c r="O5" s="7">
+        <v>334210.74699999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>698850.50699999998</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>726418.10600000003</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>733753.71100000001</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>760856.96699999995</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>795080.74699999997</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>828692.24699999997</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>863600.64899999998</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>878816.86800000002</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>893946.24899999995</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <v>839693.34</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>896313.55900000001</v>
       </c>
       <c r="N6" s="9">
-        <v>920338.12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+        <v>919233.20400000003</v>
+      </c>
+      <c r="O6" s="10">
+        <v>951065.68799999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6">
@@ -790,53 +794,59 @@
       <c r="M7" s="6">
         <v>171064.57500000001</v>
       </c>
-      <c r="N7" s="7">
-        <v>178066.133</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="N7" s="6">
+        <v>178120.33</v>
+      </c>
+      <c r="O7" s="7">
+        <v>181154.954</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>711663.19099999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>691262.00399999996</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>692549.897</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>685992.02500000002</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>700310.74100000004</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>663239.24199999997</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>595666.96</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>564591.05599999998</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>541962.92599999998</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
         <v>500514.72600000002</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>489604.29499999998</v>
       </c>
       <c r="N8" s="9">
-        <v>472523.19400000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+        <v>472660.17800000001</v>
+      </c>
+      <c r="O8" s="10">
+        <v>508300.288</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6">
@@ -872,53 +882,59 @@
       <c r="M9" s="6">
         <v>921586.98300000001</v>
       </c>
-      <c r="N9" s="7">
-        <v>935373.43200000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="N9" s="6">
+        <v>935812.82400000002</v>
+      </c>
+      <c r="O9" s="7">
+        <v>929624.57900000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>133676.15900000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>135599.86499999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>133729.296</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>135090.72500000001</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>141029.12899999999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>140705.23800000001</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>150360.09599999999</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>153808.394</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>161109.85800000001</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="9">
         <v>148143.27299999999</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>147667.296</v>
       </c>
       <c r="N10" s="9">
-        <v>148216.24299999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+        <v>148449.25700000001</v>
+      </c>
+      <c r="O10" s="10">
+        <v>154500.185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6">
@@ -954,53 +970,59 @@
       <c r="M11" s="6">
         <v>353638.51</v>
       </c>
-      <c r="N11" s="7">
-        <v>373699.78499999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="N11" s="6">
+        <v>374504.63500000001</v>
+      </c>
+      <c r="O11" s="7">
+        <v>380224.89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>662042.78700000001</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>711480.75699999998</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>732550.603</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>753194.78</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>803883.27599999995</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>830488.50899999996</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>851284.31299999997</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>853322.804</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>866861.299</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <v>808710.89099999995</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>846063.93799999997</v>
       </c>
       <c r="N12" s="9">
-        <v>910158.00600000005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+        <v>911306.31799999997</v>
+      </c>
+      <c r="O12" s="10">
+        <v>940263.33900000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
@@ -1036,53 +1058,59 @@
       <c r="M13" s="6">
         <v>3496055.8110000002</v>
       </c>
-      <c r="N13" s="7">
-        <v>3650106.8909999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="N13" s="6">
+        <v>3650609.372</v>
+      </c>
+      <c r="O13" s="7">
+        <v>3806082.926</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>273067.299</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>286058.27399999998</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>299615.20500000002</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>307939.663</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>300289.37599999999</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>305382.234</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>304646.65700000001</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>308981.25400000002</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>309426.43599999999</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>286240.78200000001</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>303251.38099999999</v>
       </c>
       <c r="N14" s="9">
-        <v>300019.033</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+        <v>300468.95299999998</v>
+      </c>
+      <c r="O14" s="10">
+        <v>309708.76500000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="6">
@@ -1118,53 +1146,59 @@
       <c r="M15" s="6">
         <v>1084518.1329999999</v>
       </c>
-      <c r="N15" s="7">
-        <v>1109908.061</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="N15" s="6">
+        <v>1110972.693</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1130785.423</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>291758.33899999998</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>294551.27799999999</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>299721.33299999998</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>320203.66700000002</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>314103.69500000001</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="9">
         <v>313422.06</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>308568.03700000001</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="9">
         <v>317844.94199999998</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>317146.82500000001</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="9">
         <v>289968.15999999997</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="9">
         <v>303633.38099999999</v>
       </c>
       <c r="N16" s="9">
-        <v>309410.94900000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+        <v>310093.17599999998</v>
+      </c>
+      <c r="O16" s="10">
+        <v>313712.864</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="6">
@@ -1200,53 +1234,59 @@
       <c r="M17" s="6">
         <v>391962.04100000003</v>
       </c>
-      <c r="N17" s="7">
-        <v>431584.41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="N17" s="6">
+        <v>431394.81699999998</v>
+      </c>
+      <c r="O17" s="7">
+        <v>442970.69199999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>1433185.382</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>1488616.797</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>1514072.5970000001</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>1567647.173</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>1626750.8130000001</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>1676418.736</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <v>1708140.0179999999</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="9">
         <v>1754179.51</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="9">
         <v>1767123.3189999999</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="9">
         <v>1624208.871</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="9">
         <v>1712483.0989999999</v>
       </c>
       <c r="N18" s="9">
-        <v>1798206.2220000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+        <v>1797607.7309999999</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1834577.514</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="6">
@@ -1282,53 +1322,59 @@
       <c r="M19" s="6">
         <v>2163537.8569999998</v>
       </c>
-      <c r="N19" s="7">
-        <v>2220002.4479999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="N19" s="6">
+        <v>2218442.304</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2275497.8330000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>522286.56300000002</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>531827.40099999995</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <v>533525.80599999998</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <v>560341.41700000002</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>573505.86499999999</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="9">
         <v>591409.51899999997</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>610394.38500000001</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="9">
         <v>633756.55900000001</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>635628.201</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="9">
         <v>601188.66099999996</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="9">
         <v>629066.20700000005</v>
       </c>
       <c r="N20" s="9">
-        <v>652250.1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+        <v>652212.81400000001</v>
+      </c>
+      <c r="O20" s="10">
+        <v>679343.78599999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="6">
@@ -1364,53 +1410,59 @@
       <c r="M21" s="6">
         <v>259938.54500000001</v>
       </c>
-      <c r="N21" s="7">
-        <v>259964.04699999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="N21" s="6">
+        <v>260102.03</v>
+      </c>
+      <c r="O21" s="7">
+        <v>265593.14299999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>141214.93700000001</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>142897.85500000001</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <v>145073.201</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <v>145894.41800000001</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <v>147428.81099999999</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="9">
         <v>152585.94099999999</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="9">
         <v>155110.35500000001</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="9">
         <v>155757.538</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>157163.253</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="9">
         <v>142605.24400000001</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="9">
         <v>155968.65900000001</v>
       </c>
       <c r="N22" s="9">
-        <v>162758.76699999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+        <v>162583.92000000001</v>
+      </c>
+      <c r="O22" s="10">
+        <v>162750.269</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="6">
@@ -1446,53 +1498,59 @@
       <c r="M23" s="6">
         <v>1865875.274</v>
       </c>
-      <c r="N23" s="7">
-        <v>1926151.3149999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="N23" s="6">
+        <v>1928648.5730000001</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1995054.68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>385968</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>386537.7</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <v>397816.027</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <v>395065.13900000002</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <v>401404.011</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>399767.90299999999</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <v>358236.41899999999</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="9">
         <v>383159.64600000001</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>367363.64600000001</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="9">
         <v>350911.40500000003</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="9">
         <v>385418.05800000002</v>
       </c>
       <c r="N24" s="9">
-        <v>416279.90100000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+        <v>415530.95400000003</v>
+      </c>
+      <c r="O24" s="10">
+        <v>447312.34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="6">
@@ -1528,53 +1586,59 @@
       <c r="M25" s="6">
         <v>794876.174</v>
       </c>
-      <c r="N25" s="7">
-        <v>827328.36699999997</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="N25" s="6">
+        <v>825850.47</v>
+      </c>
+      <c r="O25" s="7">
+        <v>852625.24899999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>509818.25799999997</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <v>526760.64599999995</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <v>522047.70799999998</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <v>542149.19200000004</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <v>574578.18700000003</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="9">
         <v>576734.826</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="9">
         <v>591415.25899999996</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="9">
         <v>611367.75</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>609108.25199999998</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="9">
         <v>553613.92599999998</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="9">
         <v>578175.10800000001</v>
       </c>
       <c r="N26" s="9">
-        <v>588046.83700000006</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+        <v>589217.59199999995</v>
+      </c>
+      <c r="O26" s="10">
+        <v>614127.16099999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="6">
@@ -1610,53 +1674,59 @@
       <c r="M27" s="6">
         <v>332542.125</v>
       </c>
-      <c r="N27" s="7">
-        <v>356485.25699999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="N27" s="6">
+        <v>356638.78399999999</v>
+      </c>
+      <c r="O27" s="7">
+        <v>403785.22899999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>416107.84700000001</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <v>437595.484</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <v>450257.19900000002</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>460034.17599999998</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>480024.60499999998</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="9">
         <v>505856.10399999999</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="9">
         <v>540243.66399999999</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="9">
         <v>557795.95200000005</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="9">
         <v>534391.92000000004</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="9">
         <v>500250.92499999999</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="9">
         <v>516190.984</v>
       </c>
       <c r="N28" s="9">
-        <v>532985.69499999995</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+        <v>532770.61199999996</v>
+      </c>
+      <c r="O28" s="10">
+        <v>575595.49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="6">
@@ -1692,53 +1762,59 @@
       <c r="M29" s="6">
         <v>507429.02100000001</v>
       </c>
-      <c r="N29" s="7">
-        <v>515371.14399999997</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="N29" s="6">
+        <v>516396.663</v>
+      </c>
+      <c r="O29" s="7">
+        <v>517683.53499999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>648753.48499999999</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>681378.51899999997</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <v>709513.53</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <v>721989.41299999994</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <v>760030.95600000001</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="9">
         <v>792034.33700000006</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="9">
         <v>784601.397</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="9">
         <v>782097.73899999994</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="9">
         <v>783103.49399999995</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="9">
         <v>731237.96799999999</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="9">
         <v>760930.12399999995</v>
       </c>
       <c r="N30" s="9">
-        <v>788445.11600000004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+        <v>790057.51300000004</v>
+      </c>
+      <c r="O30" s="10">
+        <v>827423.75699999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="6">
@@ -1774,53 +1850,59 @@
       <c r="M31" s="6">
         <v>545415.76100000006</v>
       </c>
-      <c r="N31" s="7">
-        <v>637448.72199999995</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="N31" s="6">
+        <v>637705.23699999996</v>
+      </c>
+      <c r="O31" s="7">
+        <v>656392.21499999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>647447.55299999996</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>676616.00699999998</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>680107.01800000004</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>687652.55200000003</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <v>712997.10400000005</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="9">
         <v>709959.65899999999</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>709149.522</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="9">
         <v>732093.58400000003</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>752813.52500000002</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9">
         <v>691399.97499999998</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="9">
         <v>725029.60499999998</v>
       </c>
       <c r="N32" s="9">
-        <v>748464.397</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+        <v>748690.03300000005</v>
+      </c>
+      <c r="O32" s="10">
+        <v>748220.473</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6">
@@ -1856,53 +1938,59 @@
       <c r="M33" s="6">
         <v>143213.32999999999</v>
       </c>
-      <c r="N33" s="7">
-        <v>146545.37700000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="N33" s="6">
+        <v>146637.527</v>
+      </c>
+      <c r="O33" s="7">
+        <v>148814.34299999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>1047541.9889999999</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>1084722.594</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <v>1074459.351</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <v>1074852.0209999999</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <v>1082921.8370000001</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="9">
         <v>1059514.085</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="9">
         <v>1032743.718</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="9">
         <v>1029905.4</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="9">
         <v>1053328.0020000001</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="9">
         <v>971252.07900000003</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="9">
         <v>1027896.032</v>
       </c>
       <c r="N34" s="9">
-        <v>1043010.2879999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+        <v>1041960.374</v>
+      </c>
+      <c r="O34" s="10">
+        <v>1067881.105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="6">
@@ -1938,91 +2026,97 @@
       <c r="M35" s="6">
         <v>358659.83600000001</v>
       </c>
-      <c r="N35" s="7">
-        <v>369391.51500000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="N35" s="6">
+        <v>369103.47499999998</v>
+      </c>
+      <c r="O35" s="7">
+        <v>389194.03600000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="12">
         <v>197227.212</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <v>201298.32</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="12">
         <v>196163.85500000001</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <v>211201.49799999999</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="12">
         <v>214605.46599999999</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="12">
         <v>216654.62700000001</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="12">
         <v>220568.03700000001</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="12">
         <v>228388.21299999999</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="12">
         <v>219746.54699999999</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="12">
         <v>210643.065</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="12">
         <v>221592.28099999999</v>
       </c>
       <c r="N36" s="12">
-        <v>225017.97500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
+        <v>225007.30799999999</v>
+      </c>
+      <c r="O36" s="13">
+        <v>228807.13200000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="17"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DE960-6CCA-4178-AE79-0DC62B53E3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA1B8A2-28E2-49F4-B1CD-20AC8355A408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Producto Interno Bruto por entidad federativa</t>
   </si>
   <si>
-    <t>Nota: Información disponible hasta 2022, la actualización a 2023 por parte de INEGI será el 06 de diciembre de 2024.</t>
-  </si>
-  <si>
     <t>Fuente: INEGI. Producto Interno Bruto por Entidad Federativa (PIBE). Año base 2018. En: www.inegi.org.mx.</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Actualización: Noviembre 2024.</t>
+  </si>
+  <si>
+    <t>Nota: Información disponible hasta 2023 con cofras preliminares, próxima actualización por parte de INEGI será el 04 de julio de 2025.</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA1B8A2-28E2-49F4-B1CD-20AC8355A408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64288A90-8718-4E62-82E3-C24A012D6529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.2" sheetId="1" r:id="rId1"/>

--- a/PIB_Estatal.xlsx
+++ b/PIB_Estatal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64288A90-8718-4E62-82E3-C24A012D6529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0525A-FDE6-4970-BF48-81B585D6B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.2" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
     <t>(Millones de pesos a precios de 2018)</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
-  </si>
-  <si>
     <t>Nota: Información disponible hasta 2023 con cofras preliminares, próxima actualización por parte de INEGI será el 04 de julio de 2025.</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2025.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,7 +583,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="3" customWidth="1"/>
@@ -591,7 +591,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -625,7 +625,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15">
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -669,7 +669,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -707,13 +707,13 @@
         <v>315233.12</v>
       </c>
       <c r="N5" s="6">
-        <v>314592.14500000002</v>
+        <v>314602.24699999997</v>
       </c>
       <c r="O5" s="7">
-        <v>334210.74699999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+        <v>334294.52299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -751,13 +751,13 @@
         <v>896313.55900000001</v>
       </c>
       <c r="N6" s="9">
-        <v>919233.20400000003</v>
+        <v>919300.27800000005</v>
       </c>
       <c r="O6" s="10">
-        <v>951065.68799999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+        <v>951029.42799999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -795,13 +795,13 @@
         <v>171064.57500000001</v>
       </c>
       <c r="N7" s="6">
-        <v>178120.33</v>
+        <v>178129.82399999999</v>
       </c>
       <c r="O7" s="7">
-        <v>181154.954</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+        <v>181120.095</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
@@ -839,13 +839,13 @@
         <v>489604.29499999998</v>
       </c>
       <c r="N8" s="9">
-        <v>472660.17800000001</v>
+        <v>472680.02399999998</v>
       </c>
       <c r="O8" s="10">
-        <v>508300.288</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+        <v>514860.22200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -883,13 +883,13 @@
         <v>921586.98300000001</v>
       </c>
       <c r="N9" s="6">
-        <v>935812.82400000002</v>
+        <v>935841.223</v>
       </c>
       <c r="O9" s="7">
-        <v>929624.57900000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+        <v>929917.34499999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -927,13 +927,13 @@
         <v>147667.296</v>
       </c>
       <c r="N10" s="9">
-        <v>148449.25700000001</v>
+        <v>148438.43400000001</v>
       </c>
       <c r="O10" s="10">
-        <v>154500.185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+        <v>154588.88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -971,13 +971,13 @@
         <v>353638.51</v>
       </c>
       <c r="N11" s="6">
-        <v>374504.63500000001</v>
+        <v>374518.00300000003</v>
       </c>
       <c r="O11" s="7">
-        <v>380224.89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+        <v>379736.48300000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
@@ -1015,13 +1015,13 @@
         <v>846063.93799999997</v>
       </c>
       <c r="N12" s="9">
-        <v>911306.31799999997</v>
+        <v>911271.14199999999</v>
       </c>
       <c r="O12" s="10">
-        <v>940263.33900000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+        <v>941368.24300000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1059,13 +1059,13 @@
         <v>3496055.8110000002</v>
       </c>
       <c r="N13" s="6">
-        <v>3650609.372</v>
+        <v>3650377.6189999999</v>
       </c>
       <c r="O13" s="7">
-        <v>3806082.926</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+        <v>3806101.5189999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -1103,13 +1103,13 @@
         <v>303251.38099999999</v>
       </c>
       <c r="N14" s="9">
-        <v>300468.95299999998</v>
+        <v>300478.11300000001</v>
       </c>
       <c r="O14" s="10">
-        <v>309708.76500000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+        <v>310240.19099999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1147,13 +1147,13 @@
         <v>1084518.1329999999</v>
       </c>
       <c r="N15" s="6">
-        <v>1110972.693</v>
+        <v>1110918.71</v>
       </c>
       <c r="O15" s="7">
-        <v>1130785.423</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+        <v>1128468.281</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1191,13 +1191,13 @@
         <v>303633.38099999999</v>
       </c>
       <c r="N16" s="9">
-        <v>310093.17599999998</v>
+        <v>310105.89899999998</v>
       </c>
       <c r="O16" s="10">
-        <v>313712.864</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+        <v>313074.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1235,13 +1235,13 @@
         <v>391962.04100000003</v>
       </c>
       <c r="N17" s="6">
-        <v>431394.81699999998</v>
+        <v>431251.88199999998</v>
       </c>
       <c r="O17" s="7">
-        <v>442970.69199999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+        <v>441422.255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
@@ -1279,13 +1279,13 @@
         <v>1712483.0989999999</v>
       </c>
       <c r="N18" s="9">
-        <v>1797607.7309999999</v>
+        <v>1797547.0630000001</v>
       </c>
       <c r="O18" s="10">
-        <v>1834577.514</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+        <v>1849411.733</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1323,13 +1323,13 @@
         <v>2163537.8569999998</v>
       </c>
       <c r="N19" s="6">
-        <v>2218442.304</v>
+        <v>2218452.727</v>
       </c>
       <c r="O19" s="7">
-        <v>2275497.8330000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+        <v>2269428.8089999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
@@ -1367,13 +1367,13 @@
         <v>629066.20700000005</v>
       </c>
       <c r="N20" s="9">
-        <v>652212.81400000001</v>
+        <v>652066.83900000004</v>
       </c>
       <c r="O20" s="10">
-        <v>679343.78599999996</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+        <v>678519.16099999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1411,13 +1411,13 @@
         <v>259938.54500000001</v>
       </c>
       <c r="N21" s="6">
-        <v>260102.03</v>
+        <v>260119.46299999999</v>
       </c>
       <c r="O21" s="7">
-        <v>265593.14299999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+        <v>265778.52899999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
@@ -1455,13 +1455,13 @@
         <v>155968.65900000001</v>
       </c>
       <c r="N22" s="9">
-        <v>162583.92000000001</v>
+        <v>162601.04500000001</v>
       </c>
       <c r="O22" s="10">
-        <v>162750.269</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+        <v>162761.44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -1499,13 +1499,13 @@
         <v>1865875.274</v>
       </c>
       <c r="N23" s="6">
-        <v>1928648.5730000001</v>
+        <v>1928658.429</v>
       </c>
       <c r="O23" s="7">
-        <v>1995054.68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+        <v>1995895.4169999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1543,13 +1543,13 @@
         <v>385418.05800000002</v>
       </c>
       <c r="N24" s="9">
-        <v>415530.95400000003</v>
+        <v>415502.71100000001</v>
       </c>
       <c r="O24" s="10">
-        <v>447312.34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+        <v>446836.29499999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
       <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
@@ -1587,13 +1587,13 @@
         <v>794876.174</v>
       </c>
       <c r="N25" s="6">
-        <v>825850.47</v>
+        <v>825802.78200000001</v>
       </c>
       <c r="O25" s="7">
-        <v>852625.24899999995</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+        <v>851623.35699999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -1631,13 +1631,13 @@
         <v>578175.10800000001</v>
       </c>
       <c r="N26" s="9">
-        <v>589217.59199999995</v>
+        <v>589221.23699999996</v>
       </c>
       <c r="O26" s="10">
-        <v>614127.16099999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+        <v>613730.68500000006</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1675,13 +1675,13 @@
         <v>332542.125</v>
       </c>
       <c r="N27" s="6">
-        <v>356638.78399999999</v>
+        <v>356727.57299999997</v>
       </c>
       <c r="O27" s="7">
-        <v>403785.22899999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+        <v>406186.435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1719,13 +1719,13 @@
         <v>516190.984</v>
       </c>
       <c r="N28" s="9">
-        <v>532770.61199999996</v>
+        <v>532793.15</v>
       </c>
       <c r="O28" s="10">
-        <v>575595.49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+        <v>575114.47400000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
@@ -1763,13 +1763,13 @@
         <v>507429.02100000001</v>
       </c>
       <c r="N29" s="6">
-        <v>516396.663</v>
+        <v>516319.26899999997</v>
       </c>
       <c r="O29" s="7">
-        <v>517683.53499999997</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+        <v>517548.272</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
@@ -1807,13 +1807,13 @@
         <v>760930.12399999995</v>
       </c>
       <c r="N30" s="9">
-        <v>790057.51300000004</v>
+        <v>790043.70400000003</v>
       </c>
       <c r="O30" s="10">
-        <v>827423.75699999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+        <v>829550.01599999995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
@@ -1851,13 +1851,13 @@
         <v>545415.76100000006</v>
       </c>
       <c r="N31" s="6">
-        <v>637705.23699999996</v>
+        <v>637775.22699999996</v>
       </c>
       <c r="O31" s="7">
-        <v>656392.21499999997</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+        <v>653095.64099999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
       <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
@@ -1895,13 +1895,13 @@
         <v>725029.60499999998</v>
       </c>
       <c r="N32" s="9">
-        <v>748690.03300000005</v>
+        <v>748872.57</v>
       </c>
       <c r="O32" s="10">
-        <v>748220.473</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+        <v>749222.91899999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
       <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
@@ -1939,13 +1939,13 @@
         <v>143213.32999999999</v>
       </c>
       <c r="N33" s="6">
-        <v>146637.527</v>
+        <v>146641.59899999999</v>
       </c>
       <c r="O33" s="7">
-        <v>148814.34299999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+        <v>148529.16200000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
@@ -1983,13 +1983,13 @@
         <v>1027896.032</v>
       </c>
       <c r="N34" s="9">
-        <v>1041960.374</v>
+        <v>1041978.086</v>
       </c>
       <c r="O34" s="10">
-        <v>1067881.105</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+        <v>1069284.605</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
@@ -2027,13 +2027,13 @@
         <v>358659.83600000001</v>
       </c>
       <c r="N35" s="6">
-        <v>369103.47499999998</v>
+        <v>369043.26799999998</v>
       </c>
       <c r="O35" s="7">
-        <v>389194.03600000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+        <v>389502.13699999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
       <c r="B36" s="11" t="s">
         <v>31</v>
       </c>
@@ -2071,15 +2071,15 @@
         <v>221592.28099999999</v>
       </c>
       <c r="N36" s="12">
-        <v>225007.30799999999</v>
+        <v>225013.34899999999</v>
       </c>
       <c r="O36" s="13">
-        <v>228807.13200000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>228860.43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1">
       <c r="B37" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2093,9 +2093,9 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:15" ht="18" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -2110,7 +2110,7 @@
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:15">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
